--- a/story/Main Story and Others 主线剧情等/tutorial 教学关卡/training/training_1_a.xlsx
+++ b/story/Main Story and Others 主线剧情等/tutorial 教学关卡/training/training_1_a.xlsx
@@ -128,11 +128,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_sys")] Operator Jessica. According to the schedule, you’re 3 minutes and 14 seconds late.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_jesica")] I'm so sorry! It took me some time to ready my equipment… What do I need to do next?
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_sys")] Operator Jessica. According to the schedule, you're 3 minutes and 14 seconds late.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_jesica")] I'm so sorry! It took me some time to ready my equipment... What do I need to do next?
 </t>
   </si>
   <si>
